--- a/txt/tables.xlsx
+++ b/txt/tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PascalCompiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pascal\PascalCompiler\txt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>T_ARRAY</t>
   </si>
@@ -227,193 +227,198 @@
     <t>num</t>
   </si>
   <si>
+    <t>program =&gt; T_PROGRAM T_IDN T_LPAR identifier_list T_RPAR T_SEMICL declarations subprogram_declarations compound_statement</t>
+  </si>
+  <si>
+    <t>identifier_list =&gt; T_IDN</t>
+  </si>
+  <si>
+    <t>identifier_list =&gt; identifier_list T_COMMA T_IDN</t>
+  </si>
+  <si>
+    <t>declarations =&gt; T_VAR declaration T_SEMICL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">declarations =&gt; </t>
+  </si>
+  <si>
+    <t>declaration =&gt; identifier_list T_COLON type</t>
+  </si>
+  <si>
+    <t>type =&gt; standard_type</t>
+  </si>
+  <si>
+    <t>type =&gt; T_ARRAY T_LBRKPAR T_INT T_DOUBLEPERIOD T_INT T_RBRKPAR T_OF standard_type</t>
+  </si>
+  <si>
+    <t>standard_type =&gt; T_INTTYPE</t>
+  </si>
+  <si>
+    <t>standard_type =&gt; T_REALTYPE</t>
+  </si>
+  <si>
+    <t>subprogram_declarations =&gt; subprogram_declarations subprogram_declaration T_SEMICL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subprogram_declarations =&gt; </t>
+  </si>
+  <si>
+    <t>subprogram_declaration =&gt; subprogram_head declarations compound_statement</t>
+  </si>
+  <si>
+    <t>subprogram_head =&gt; T_FUNCTION T_IDN arguments T_COLON standard_type T_SEMICL</t>
+  </si>
+  <si>
+    <t>subprogram_head =&gt; T_PRODEDURE T_IDN arguments T_SEMICL</t>
+  </si>
+  <si>
+    <t>arguments =&gt; T_LPAR parameter_list T_RPAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arguments =&gt; </t>
+  </si>
+  <si>
+    <t>parameter_list =&gt; identifier_list T_COLON type</t>
+  </si>
+  <si>
+    <t>parameter_list =&gt; parameter_list T_SEMICL identifier_list T_COLON type</t>
+  </si>
+  <si>
+    <t>compound_statement =&gt; T_BEGIN optional_statements T_END</t>
+  </si>
+  <si>
+    <t>optional_statements =&gt; statement_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional_statements =&gt; </t>
+  </si>
+  <si>
+    <t>statement_list =&gt; statement</t>
+  </si>
+  <si>
+    <t>statement_list =&gt; statement_list T_SEMICL statement</t>
+  </si>
+  <si>
+    <t>statement =&gt; variable T_ASS expression</t>
+  </si>
+  <si>
+    <t>statement =&gt; procedure_statement</t>
+  </si>
+  <si>
+    <t>statement =&gt; compound_statement</t>
+  </si>
+  <si>
+    <t>statement =&gt; T_IF expression T_THEN statement T_ELSE statement</t>
+  </si>
+  <si>
+    <t>statement =&gt; T_WHILE expression T_DO statement</t>
+  </si>
+  <si>
+    <t>variable =&gt; T_IDN</t>
+  </si>
+  <si>
+    <t>variable =&gt; T_IDN T_LBRKPAR expression T_RBRKPAR</t>
+  </si>
+  <si>
+    <t>procedure_statement =&gt; T_IDN</t>
+  </si>
+  <si>
+    <t>procedure_statement =&gt; T_IDN T_LPAR expression_list T_RPAR</t>
+  </si>
+  <si>
+    <t>expression_list =&gt; expression</t>
+  </si>
+  <si>
+    <t>expression_list =&gt; expression_list T_COMMA expression</t>
+  </si>
+  <si>
+    <t>expression =&gt; simple_expression</t>
+  </si>
+  <si>
+    <t>expression =&gt; simple_expression relop simple_expression</t>
+  </si>
+  <si>
+    <t>simple_expression =&gt; term</t>
+  </si>
+  <si>
+    <t>simple_expression =&gt; sign term</t>
+  </si>
+  <si>
+    <t>simple_expression =&gt; simple_expression addop term</t>
+  </si>
+  <si>
+    <t>term =&gt; factor</t>
+  </si>
+  <si>
+    <t>term =&gt; term mulop factor</t>
+  </si>
+  <si>
+    <t>factor =&gt; T_IDN</t>
+  </si>
+  <si>
+    <t>factor =&gt; T_IDN T_LPAR expression_list T_RPAR</t>
+  </si>
+  <si>
+    <t>factor =&gt; num</t>
+  </si>
+  <si>
+    <t>factor =&gt; T_LPAR expression T_RPAR</t>
+  </si>
+  <si>
+    <t>factor =&gt; T_NOT factor</t>
+  </si>
+  <si>
+    <t>sign =&gt; T_ADD</t>
+  </si>
+  <si>
+    <t>sign =&gt; T_SUB</t>
+  </si>
+  <si>
+    <t>relop =&gt; T_EQL</t>
+  </si>
+  <si>
+    <t>relop =&gt; T_NEQ</t>
+  </si>
+  <si>
+    <t>relop =&gt; T_GT</t>
+  </si>
+  <si>
+    <t>relop =&gt; T_GTE</t>
+  </si>
+  <si>
+    <t>relop =&gt; T_LT</t>
+  </si>
+  <si>
+    <t>relop =&gt; T_LTE</t>
+  </si>
+  <si>
+    <t>addop =&gt; T_ADD</t>
+  </si>
+  <si>
+    <t>addop =&gt; T_SUB</t>
+  </si>
+  <si>
+    <t>mulop =&gt; T_MUL</t>
+  </si>
+  <si>
+    <t>mulop =&gt; T_SLASH</t>
+  </si>
+  <si>
+    <t>num =&gt; T_INT</t>
+  </si>
+  <si>
+    <t>num =&gt; T_REAL</t>
+  </si>
+  <si>
     <t>program' =&gt; program</t>
-  </si>
-  <si>
-    <t>program =&gt; T_PROGRAM T_IDN T_LPAR identifier_list T_RPAR T_SEMICL declarations subprogram_declarations compound_statement</t>
-  </si>
-  <si>
-    <t>identifier_list =&gt; T_IDN</t>
-  </si>
-  <si>
-    <t>identifier_list =&gt; identifier_list T_COMMA T_IDN</t>
-  </si>
-  <si>
-    <t>declarations =&gt; T_VAR declaration T_SEMICL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">declarations =&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>declaration =&gt; declaration T_SEMICL identifier_list T_COLON type</t>
-  </si>
-  <si>
-    <t>declaration =&gt; identifier_list T_COLON type</t>
-  </si>
-  <si>
-    <t>type =&gt; standard_type</t>
-  </si>
-  <si>
-    <t>type =&gt; T_ARRAY T_LBRKPAR T_INT T_DOUBLEPERIOD T_INT T_RBRKPAR T_OF standard_type</t>
-  </si>
-  <si>
-    <t>standard_type =&gt; T_INTTYPE</t>
-  </si>
-  <si>
-    <t>standard_type =&gt; T_REALTYPE</t>
-  </si>
-  <si>
-    <t>subprogram_declarations =&gt; subprogram_declarations subprogram_declaration T_SEMICL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subprogram_declarations =&gt; </t>
-  </si>
-  <si>
-    <t>subprogram_declaration =&gt; subprogram_head declarations compound_statement</t>
-  </si>
-  <si>
-    <t>subprogram_head =&gt; T_FUNCTION T_IDN arguments T_COLON standard_type T_SEMICL</t>
-  </si>
-  <si>
-    <t>subprogram_head =&gt; T_PRODEDURE T_IDN arguments T_SEMICL</t>
-  </si>
-  <si>
-    <t>arguments =&gt; T_LPAR parameter_list T_RPAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arguments =&gt; </t>
-  </si>
-  <si>
-    <t>parameter_list =&gt; identifier_list T_COLON type</t>
-  </si>
-  <si>
-    <t>parameter_list =&gt; parameter_list T_SEMICL identifier_list T_COLON type</t>
-  </si>
-  <si>
-    <t>compound_statement =&gt; T_BEGIN optional_statements T_END</t>
-  </si>
-  <si>
-    <t>optional_statements =&gt; statement_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional_statements =&gt; </t>
-  </si>
-  <si>
-    <t>statement_list =&gt; statement</t>
-  </si>
-  <si>
-    <t>statement_list =&gt; statement_list T_SEMICL statement</t>
-  </si>
-  <si>
-    <t>statement =&gt; variable T_ASS expression</t>
-  </si>
-  <si>
-    <t>statement =&gt; procedure_statement</t>
-  </si>
-  <si>
-    <t>statement =&gt; compound_statement</t>
-  </si>
-  <si>
-    <t>statement =&gt; T_IF expression T_THEN statement T_ELSE statement</t>
-  </si>
-  <si>
-    <t>statement =&gt; T_WHILE expression T_DO statement</t>
-  </si>
-  <si>
-    <t>variable =&gt; T_IDN</t>
-  </si>
-  <si>
-    <t>variable =&gt; T_IDN T_LBRKPAR expression T_RBRKPAR</t>
-  </si>
-  <si>
-    <t>procedure_statement =&gt; T_IDN</t>
-  </si>
-  <si>
-    <t>procedure_statement =&gt; T_IDN T_LPAR expression_list T_RPAR</t>
-  </si>
-  <si>
-    <t>expression_list =&gt; expression</t>
-  </si>
-  <si>
-    <t>expression_list =&gt; expression_list T_COMMA expression</t>
-  </si>
-  <si>
-    <t>expression =&gt; simple_expression</t>
-  </si>
-  <si>
-    <t>expression =&gt; simple_expression relop simple_expression</t>
-  </si>
-  <si>
-    <t>simple_expression =&gt; term</t>
-  </si>
-  <si>
-    <t>simple_expression =&gt; sign term</t>
-  </si>
-  <si>
-    <t>simple_expression =&gt; simple_expression addop term</t>
-  </si>
-  <si>
-    <t>term =&gt; factor</t>
-  </si>
-  <si>
-    <t>term =&gt; term mulop factor</t>
-  </si>
-  <si>
-    <t>factor =&gt; T_IDN</t>
-  </si>
-  <si>
-    <t>factor =&gt; T_IDN T_LPAR expression_list T_RPAR</t>
-  </si>
-  <si>
-    <t>factor =&gt; num</t>
-  </si>
-  <si>
-    <t>factor =&gt; T_LPAR expression T_RPAR</t>
-  </si>
-  <si>
-    <t>factor =&gt; T_NOT factor</t>
-  </si>
-  <si>
-    <t>sign =&gt; T_ADD</t>
-  </si>
-  <si>
-    <t>sign =&gt; T_SUB</t>
-  </si>
-  <si>
-    <t>relop =&gt; T_EQL</t>
-  </si>
-  <si>
-    <t>relop =&gt; T_NEQ</t>
-  </si>
-  <si>
-    <t>relop =&gt; T_GT</t>
-  </si>
-  <si>
-    <t>relop =&gt; T_GTE</t>
-  </si>
-  <si>
-    <t>relop =&gt; T_LT</t>
-  </si>
-  <si>
-    <t>relop =&gt; T_LTE</t>
-  </si>
-  <si>
-    <t>addop =&gt; T_ADD</t>
-  </si>
-  <si>
-    <t>addop =&gt; T_SUB</t>
-  </si>
-  <si>
-    <t>mulop =&gt; T_MUL</t>
-  </si>
-  <si>
-    <t>mulop =&gt; T_SLASH</t>
-  </si>
-  <si>
-    <t>num =&gt; T_INT</t>
-  </si>
-  <si>
-    <t>num =&gt; T_REAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor =&gt; T_IDN T_LBRKPAR expression T_RBRKPAR</t>
   </si>
 </sst>
 </file>
@@ -773,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E6:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="G58" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -794,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.15">
@@ -808,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.15">
@@ -822,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.15">
@@ -836,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.15">
@@ -850,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.15">
@@ -864,7 +869,7 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.15">
@@ -878,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.15">
@@ -892,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.15">
@@ -906,7 +911,7 @@
         <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.15">
@@ -920,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.15">
@@ -934,7 +939,7 @@
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.15">
@@ -948,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.15">
@@ -962,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.15">
@@ -976,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.15">
@@ -990,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.15">
@@ -1004,7 +1009,7 @@
         <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.15">
@@ -1018,7 +1023,7 @@
         <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.15">
@@ -1032,7 +1037,7 @@
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.15">
@@ -1046,7 +1051,7 @@
         <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.15">
@@ -1060,7 +1065,7 @@
         <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.15">
@@ -1074,7 +1079,7 @@
         <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.15">
@@ -1088,7 +1093,7 @@
         <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.15">
@@ -1102,7 +1107,7 @@
         <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.15">
@@ -1116,7 +1121,7 @@
         <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.15">
@@ -1130,7 +1135,7 @@
         <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.15">
@@ -1144,7 +1149,7 @@
         <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.15">
@@ -1158,7 +1163,7 @@
         <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.15">
@@ -1172,7 +1177,7 @@
         <v>27</v>
       </c>
       <c r="I33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.15">
@@ -1186,7 +1191,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="5:9" x14ac:dyDescent="0.15">
@@ -1200,7 +1205,7 @@
         <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.15">
@@ -1214,7 +1219,7 @@
         <v>30</v>
       </c>
       <c r="I36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.15">
@@ -1228,7 +1233,7 @@
         <v>31</v>
       </c>
       <c r="I37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.15">
@@ -1242,7 +1247,7 @@
         <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.15">
@@ -1256,7 +1261,7 @@
         <v>33</v>
       </c>
       <c r="I39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="5:9" x14ac:dyDescent="0.15">
@@ -1270,7 +1275,7 @@
         <v>34</v>
       </c>
       <c r="I40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="5:9" x14ac:dyDescent="0.15">
@@ -1284,7 +1289,7 @@
         <v>35</v>
       </c>
       <c r="I41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="5:9" x14ac:dyDescent="0.15">
@@ -1298,7 +1303,7 @@
         <v>36</v>
       </c>
       <c r="I42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="5:9" x14ac:dyDescent="0.15">
@@ -1312,7 +1317,7 @@
         <v>37</v>
       </c>
       <c r="I43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="5:9" x14ac:dyDescent="0.15">
@@ -1326,7 +1331,7 @@
         <v>38</v>
       </c>
       <c r="I44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="5:9" x14ac:dyDescent="0.15">
@@ -1340,7 +1345,7 @@
         <v>39</v>
       </c>
       <c r="I45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="5:9" x14ac:dyDescent="0.15">
@@ -1354,7 +1359,7 @@
         <v>40</v>
       </c>
       <c r="I46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="5:9" x14ac:dyDescent="0.15">
@@ -1368,7 +1373,7 @@
         <v>41</v>
       </c>
       <c r="I47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="5:9" x14ac:dyDescent="0.15">
@@ -1382,7 +1387,7 @@
         <v>42</v>
       </c>
       <c r="I48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.15">
@@ -1396,7 +1401,7 @@
         <v>43</v>
       </c>
       <c r="I49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.15">
@@ -1410,7 +1415,7 @@
         <v>44</v>
       </c>
       <c r="I50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.15">
@@ -1424,7 +1429,7 @@
         <v>45</v>
       </c>
       <c r="I51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.15">
@@ -1438,7 +1443,7 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.15">
@@ -1452,7 +1457,7 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.15">
@@ -1466,7 +1471,7 @@
         <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.15">
@@ -1480,7 +1485,7 @@
         <v>49</v>
       </c>
       <c r="I55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.15">
@@ -1494,7 +1499,7 @@
         <v>50</v>
       </c>
       <c r="I56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.15">
@@ -1508,7 +1513,7 @@
         <v>51</v>
       </c>
       <c r="I57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.15">
@@ -1522,7 +1527,7 @@
         <v>52</v>
       </c>
       <c r="I58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.15">
@@ -1536,7 +1541,7 @@
         <v>53</v>
       </c>
       <c r="I59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.15">
@@ -1550,7 +1555,7 @@
         <v>54</v>
       </c>
       <c r="I60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="5:9" x14ac:dyDescent="0.15">
@@ -1564,7 +1569,7 @@
         <v>55</v>
       </c>
       <c r="I61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="5:9" x14ac:dyDescent="0.15">
@@ -1578,7 +1583,7 @@
         <v>56</v>
       </c>
       <c r="I62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.15">
@@ -1592,7 +1597,7 @@
         <v>57</v>
       </c>
       <c r="I63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.15">
@@ -1606,7 +1611,7 @@
         <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="5:9" x14ac:dyDescent="0.15">
@@ -1620,7 +1625,7 @@
         <v>59</v>
       </c>
       <c r="I65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="5:9" x14ac:dyDescent="0.15">
@@ -1634,7 +1639,7 @@
         <v>60</v>
       </c>
       <c r="I66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="5:9" x14ac:dyDescent="0.15">
@@ -1648,7 +1653,7 @@
         <v>61</v>
       </c>
       <c r="I67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.15">
@@ -1662,7 +1667,7 @@
         <v>62</v>
       </c>
       <c r="I68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.15">
@@ -1671,6 +1676,12 @@
       </c>
       <c r="F69" t="s">
         <v>63</v>
+      </c>
+      <c r="H69">
+        <v>63</v>
+      </c>
+      <c r="I69" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.15">

--- a/txt/tables.xlsx
+++ b/txt/tables.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="168">
   <si>
     <t>T_ARRAY</t>
   </si>
@@ -419,6 +420,143 @@
   </si>
   <si>
     <t>factor =&gt; T_IDN T_LBRKPAR expression T_RBRKPAR</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>procedure</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -464,8 +602,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,14 +919,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E6:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G58" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F71" sqref="E45:F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="134.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="5:9" x14ac:dyDescent="0.15">
@@ -1697,6 +1838,609 @@
         <v>65</v>
       </c>
       <c r="F71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17">
+        <v>12</v>
+      </c>
+      <c r="L17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19">
+        <v>14</v>
+      </c>
+      <c r="L19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20">
+        <v>15</v>
+      </c>
+      <c r="L20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21">
+        <v>16</v>
+      </c>
+      <c r="L21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22">
+        <v>17</v>
+      </c>
+      <c r="L22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23">
+        <v>18</v>
+      </c>
+      <c r="L23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="K24">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="K26">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="K27">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="K28">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="K29">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="K30">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="K31">
+        <v>26</v>
+      </c>
+      <c r="L31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="K32">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
         <v>65</v>
       </c>
     </row>

--- a/txt/tables.xlsx
+++ b/txt/tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>T_OF</t>
   </si>
   <si>
-    <t>T_PRODEDURE</t>
-  </si>
-  <si>
     <t>T_PROGRAM</t>
   </si>
   <si>
@@ -228,335 +225,341 @@
     <t>num</t>
   </si>
   <si>
-    <t>program =&gt; T_PROGRAM T_IDN T_LPAR identifier_list T_RPAR T_SEMICL declarations subprogram_declarations compound_statement</t>
+    <t>identifier_list =&gt; identifier_list T_COMMA T_IDN</t>
+  </si>
+  <si>
+    <t>declarations =&gt; T_VAR declaration T_SEMICL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">declarations =&gt; </t>
+  </si>
+  <si>
+    <t>declaration =&gt; identifier_list T_COLON type</t>
+  </si>
+  <si>
+    <t>type =&gt; standard_type</t>
+  </si>
+  <si>
+    <t>type =&gt; T_ARRAY T_LBRKPAR T_INT T_DOUBLEPERIOD T_INT T_RBRKPAR T_OF standard_type</t>
+  </si>
+  <si>
+    <t>standard_type =&gt; T_INTTYPE</t>
+  </si>
+  <si>
+    <t>standard_type =&gt; T_REALTYPE</t>
+  </si>
+  <si>
+    <t>subprogram_declarations =&gt; subprogram_declarations subprogram_declaration T_SEMICL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subprogram_declarations =&gt; </t>
+  </si>
+  <si>
+    <t>subprogram_declaration =&gt; subprogram_head declarations compound_statement</t>
+  </si>
+  <si>
+    <t>subprogram_head =&gt; T_FUNCTION T_IDN arguments T_COLON standard_type T_SEMICL</t>
+  </si>
+  <si>
+    <t>arguments =&gt; T_LPAR parameter_list T_RPAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arguments =&gt; </t>
+  </si>
+  <si>
+    <t>parameter_list =&gt; identifier_list T_COLON type</t>
+  </si>
+  <si>
+    <t>parameter_list =&gt; parameter_list T_SEMICL identifier_list T_COLON type</t>
+  </si>
+  <si>
+    <t>compound_statement =&gt; T_BEGIN optional_statements T_END</t>
+  </si>
+  <si>
+    <t>optional_statements =&gt; statement_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional_statements =&gt; </t>
+  </si>
+  <si>
+    <t>statement_list =&gt; statement</t>
+  </si>
+  <si>
+    <t>statement_list =&gt; statement_list T_SEMICL statement</t>
+  </si>
+  <si>
+    <t>statement =&gt; variable T_ASS expression</t>
+  </si>
+  <si>
+    <t>statement =&gt; procedure_statement</t>
+  </si>
+  <si>
+    <t>statement =&gt; compound_statement</t>
+  </si>
+  <si>
+    <t>statement =&gt; T_IF expression T_THEN statement T_ELSE statement</t>
+  </si>
+  <si>
+    <t>statement =&gt; T_WHILE expression T_DO statement</t>
+  </si>
+  <si>
+    <t>variable =&gt; T_IDN</t>
+  </si>
+  <si>
+    <t>variable =&gt; T_IDN T_LBRKPAR expression T_RBRKPAR</t>
+  </si>
+  <si>
+    <t>procedure_statement =&gt; T_IDN</t>
+  </si>
+  <si>
+    <t>procedure_statement =&gt; T_IDN T_LPAR expression_list T_RPAR</t>
+  </si>
+  <si>
+    <t>expression_list =&gt; expression</t>
+  </si>
+  <si>
+    <t>expression_list =&gt; expression_list T_COMMA expression</t>
+  </si>
+  <si>
+    <t>expression =&gt; simple_expression</t>
+  </si>
+  <si>
+    <t>expression =&gt; simple_expression relop simple_expression</t>
+  </si>
+  <si>
+    <t>simple_expression =&gt; term</t>
+  </si>
+  <si>
+    <t>simple_expression =&gt; sign term</t>
+  </si>
+  <si>
+    <t>simple_expression =&gt; simple_expression addop term</t>
+  </si>
+  <si>
+    <t>term =&gt; factor</t>
+  </si>
+  <si>
+    <t>term =&gt; term mulop factor</t>
+  </si>
+  <si>
+    <t>factor =&gt; T_IDN</t>
+  </si>
+  <si>
+    <t>factor =&gt; T_IDN T_LPAR expression_list T_RPAR</t>
+  </si>
+  <si>
+    <t>factor =&gt; num</t>
+  </si>
+  <si>
+    <t>factor =&gt; T_LPAR expression T_RPAR</t>
+  </si>
+  <si>
+    <t>factor =&gt; T_NOT factor</t>
+  </si>
+  <si>
+    <t>sign =&gt; T_ADD</t>
+  </si>
+  <si>
+    <t>sign =&gt; T_SUB</t>
+  </si>
+  <si>
+    <t>relop =&gt; T_EQL</t>
+  </si>
+  <si>
+    <t>relop =&gt; T_NEQ</t>
+  </si>
+  <si>
+    <t>relop =&gt; T_GT</t>
+  </si>
+  <si>
+    <t>relop =&gt; T_GTE</t>
+  </si>
+  <si>
+    <t>relop =&gt; T_LT</t>
+  </si>
+  <si>
+    <t>relop =&gt; T_LTE</t>
+  </si>
+  <si>
+    <t>addop =&gt; T_ADD</t>
+  </si>
+  <si>
+    <t>addop =&gt; T_SUB</t>
+  </si>
+  <si>
+    <t>mulop =&gt; T_MUL</t>
+  </si>
+  <si>
+    <t>mulop =&gt; T_SLASH</t>
+  </si>
+  <si>
+    <t>num =&gt; T_INT</t>
+  </si>
+  <si>
+    <t>num =&gt; T_REAL</t>
+  </si>
+  <si>
+    <t>program' =&gt; program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>declaration =&gt; declaration T_SEMICL identifier_list T_COLON type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor =&gt; T_IDN T_LBRKPAR expression T_RBRKPAR</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>procedure</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>identifier_list =&gt; T_IDN</t>
-  </si>
-  <si>
-    <t>identifier_list =&gt; identifier_list T_COMMA T_IDN</t>
-  </si>
-  <si>
-    <t>declarations =&gt; T_VAR declaration T_SEMICL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">declarations =&gt; </t>
-  </si>
-  <si>
-    <t>declaration =&gt; identifier_list T_COLON type</t>
-  </si>
-  <si>
-    <t>type =&gt; standard_type</t>
-  </si>
-  <si>
-    <t>type =&gt; T_ARRAY T_LBRKPAR T_INT T_DOUBLEPERIOD T_INT T_RBRKPAR T_OF standard_type</t>
-  </si>
-  <si>
-    <t>standard_type =&gt; T_INTTYPE</t>
-  </si>
-  <si>
-    <t>standard_type =&gt; T_REALTYPE</t>
-  </si>
-  <si>
-    <t>subprogram_declarations =&gt; subprogram_declarations subprogram_declaration T_SEMICL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subprogram_declarations =&gt; </t>
-  </si>
-  <si>
-    <t>subprogram_declaration =&gt; subprogram_head declarations compound_statement</t>
-  </si>
-  <si>
-    <t>subprogram_head =&gt; T_FUNCTION T_IDN arguments T_COLON standard_type T_SEMICL</t>
-  </si>
-  <si>
-    <t>subprogram_head =&gt; T_PRODEDURE T_IDN arguments T_SEMICL</t>
-  </si>
-  <si>
-    <t>arguments =&gt; T_LPAR parameter_list T_RPAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arguments =&gt; </t>
-  </si>
-  <si>
-    <t>parameter_list =&gt; identifier_list T_COLON type</t>
-  </si>
-  <si>
-    <t>parameter_list =&gt; parameter_list T_SEMICL identifier_list T_COLON type</t>
-  </si>
-  <si>
-    <t>compound_statement =&gt; T_BEGIN optional_statements T_END</t>
-  </si>
-  <si>
-    <t>optional_statements =&gt; statement_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional_statements =&gt; </t>
-  </si>
-  <si>
-    <t>statement_list =&gt; statement</t>
-  </si>
-  <si>
-    <t>statement_list =&gt; statement_list T_SEMICL statement</t>
-  </si>
-  <si>
-    <t>statement =&gt; variable T_ASS expression</t>
-  </si>
-  <si>
-    <t>statement =&gt; procedure_statement</t>
-  </si>
-  <si>
-    <t>statement =&gt; compound_statement</t>
-  </si>
-  <si>
-    <t>statement =&gt; T_IF expression T_THEN statement T_ELSE statement</t>
-  </si>
-  <si>
-    <t>statement =&gt; T_WHILE expression T_DO statement</t>
-  </si>
-  <si>
-    <t>variable =&gt; T_IDN</t>
-  </si>
-  <si>
-    <t>variable =&gt; T_IDN T_LBRKPAR expression T_RBRKPAR</t>
-  </si>
-  <si>
-    <t>procedure_statement =&gt; T_IDN</t>
-  </si>
-  <si>
-    <t>procedure_statement =&gt; T_IDN T_LPAR expression_list T_RPAR</t>
-  </si>
-  <si>
-    <t>expression_list =&gt; expression</t>
-  </si>
-  <si>
-    <t>expression_list =&gt; expression_list T_COMMA expression</t>
-  </si>
-  <si>
-    <t>expression =&gt; simple_expression</t>
-  </si>
-  <si>
-    <t>expression =&gt; simple_expression relop simple_expression</t>
-  </si>
-  <si>
-    <t>simple_expression =&gt; term</t>
-  </si>
-  <si>
-    <t>simple_expression =&gt; sign term</t>
-  </si>
-  <si>
-    <t>simple_expression =&gt; simple_expression addop term</t>
-  </si>
-  <si>
-    <t>term =&gt; factor</t>
-  </si>
-  <si>
-    <t>term =&gt; term mulop factor</t>
-  </si>
-  <si>
-    <t>factor =&gt; T_IDN</t>
-  </si>
-  <si>
-    <t>factor =&gt; T_IDN T_LPAR expression_list T_RPAR</t>
-  </si>
-  <si>
-    <t>factor =&gt; num</t>
-  </si>
-  <si>
-    <t>factor =&gt; T_LPAR expression T_RPAR</t>
-  </si>
-  <si>
-    <t>factor =&gt; T_NOT factor</t>
-  </si>
-  <si>
-    <t>sign =&gt; T_ADD</t>
-  </si>
-  <si>
-    <t>sign =&gt; T_SUB</t>
-  </si>
-  <si>
-    <t>relop =&gt; T_EQL</t>
-  </si>
-  <si>
-    <t>relop =&gt; T_NEQ</t>
-  </si>
-  <si>
-    <t>relop =&gt; T_GT</t>
-  </si>
-  <si>
-    <t>relop =&gt; T_GTE</t>
-  </si>
-  <si>
-    <t>relop =&gt; T_LT</t>
-  </si>
-  <si>
-    <t>relop =&gt; T_LTE</t>
-  </si>
-  <si>
-    <t>addop =&gt; T_ADD</t>
-  </si>
-  <si>
-    <t>addop =&gt; T_SUB</t>
-  </si>
-  <si>
-    <t>mulop =&gt; T_MUL</t>
-  </si>
-  <si>
-    <t>mulop =&gt; T_SLASH</t>
-  </si>
-  <si>
-    <t>num =&gt; T_INT</t>
-  </si>
-  <si>
-    <t>num =&gt; T_REAL</t>
-  </si>
-  <si>
-    <t>program' =&gt; program</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>declaration =&gt; declaration T_SEMICL identifier_list T_COLON type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>factor =&gt; T_IDN T_LBRKPAR expression T_RBRKPAR</t>
-  </si>
-  <si>
-    <t>array</t>
-  </si>
-  <si>
-    <t>begin</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>procedure</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>then</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>while</t>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EOF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>program =&gt; T_PROGRAM T_IDN T_LPAR identifier_list T_RPAR T_SEMICL declarations 
+subprogram_declarations compound_statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PROCEDURE</t>
+  </si>
+  <si>
+    <t>subprogram_head =&gt; T_PROCEDURE T_IDN arguments T_SEMICL</t>
   </si>
 </sst>
 </file>
@@ -602,12 +605,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,14 +925,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E6:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F71" sqref="E45:F71"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.75" customWidth="1"/>
+    <col min="9" max="9" width="91.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="5:9" x14ac:dyDescent="0.15">
@@ -940,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" ht="27" x14ac:dyDescent="0.15">
       <c r="E7">
         <v>1</v>
       </c>
@@ -953,8 +959,8 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
-        <v>66</v>
+      <c r="I7" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.15">
@@ -968,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.15">
@@ -982,7 +988,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.15">
@@ -996,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.15">
@@ -1010,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.15">
@@ -1024,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.15">
@@ -1038,7 +1044,7 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.15">
@@ -1052,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.15">
@@ -1066,7 +1072,7 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.15">
@@ -1074,13 +1080,13 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.15">
@@ -1088,13 +1094,13 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <v>11</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.15">
@@ -1102,13 +1108,13 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.15">
@@ -1116,13 +1122,13 @@
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19">
         <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.15">
@@ -1130,13 +1136,13 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.15">
@@ -1144,13 +1150,13 @@
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21">
         <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.15">
@@ -1158,13 +1164,13 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22">
         <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.15">
@@ -1172,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23">
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.15">
@@ -1186,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24">
         <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.15">
@@ -1200,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25">
         <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.15">
@@ -1214,13 +1220,13 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26">
         <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.15">
@@ -1228,13 +1234,13 @@
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27">
         <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.15">
@@ -1242,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H28">
         <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.15">
@@ -1256,13 +1262,13 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H29">
         <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.15">
@@ -1270,13 +1276,13 @@
         <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H30">
         <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.15">
@@ -1284,13 +1290,13 @@
         <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H31">
         <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.15">
@@ -1298,13 +1304,13 @@
         <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32">
         <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.15">
@@ -1312,13 +1318,13 @@
         <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H33">
         <v>27</v>
       </c>
       <c r="I33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.15">
@@ -1326,13 +1332,13 @@
         <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H34">
         <v>28</v>
       </c>
       <c r="I34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="5:9" x14ac:dyDescent="0.15">
@@ -1340,13 +1346,13 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H35">
         <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.15">
@@ -1354,13 +1360,13 @@
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H36">
         <v>30</v>
       </c>
       <c r="I36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.15">
@@ -1368,13 +1374,13 @@
         <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>31</v>
       </c>
       <c r="I37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.15">
@@ -1382,13 +1388,13 @@
         <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.15">
@@ -1396,13 +1402,13 @@
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>33</v>
       </c>
       <c r="I39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="5:9" x14ac:dyDescent="0.15">
@@ -1410,13 +1416,13 @@
         <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>34</v>
       </c>
       <c r="I40" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="5:9" x14ac:dyDescent="0.15">
@@ -1424,13 +1430,13 @@
         <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>35</v>
       </c>
       <c r="I41" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="5:9" x14ac:dyDescent="0.15">
@@ -1438,13 +1444,13 @@
         <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H42">
         <v>36</v>
       </c>
       <c r="I42" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="5:9" x14ac:dyDescent="0.15">
@@ -1452,13 +1458,13 @@
         <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>37</v>
       </c>
       <c r="I43" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="5:9" x14ac:dyDescent="0.15">
@@ -1466,13 +1472,13 @@
         <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>38</v>
       </c>
       <c r="I44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="5:9" x14ac:dyDescent="0.15">
@@ -1480,13 +1486,13 @@
         <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>39</v>
       </c>
       <c r="I45" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="5:9" x14ac:dyDescent="0.15">
@@ -1494,13 +1500,13 @@
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>40</v>
       </c>
       <c r="I46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="5:9" x14ac:dyDescent="0.15">
@@ -1508,13 +1514,13 @@
         <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H47">
         <v>41</v>
       </c>
       <c r="I47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="5:9" x14ac:dyDescent="0.15">
@@ -1522,13 +1528,13 @@
         <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H48">
         <v>42</v>
       </c>
       <c r="I48" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.15">
@@ -1536,13 +1542,13 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H49">
         <v>43</v>
       </c>
       <c r="I49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.15">
@@ -1550,13 +1556,13 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H50">
         <v>44</v>
       </c>
       <c r="I50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.15">
@@ -1564,13 +1570,13 @@
         <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H51">
         <v>45</v>
       </c>
       <c r="I51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.15">
@@ -1578,13 +1584,13 @@
         <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52">
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.15">
@@ -1592,13 +1598,13 @@
         <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53">
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.15">
@@ -1606,13 +1612,13 @@
         <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H54">
         <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.15">
@@ -1620,13 +1626,13 @@
         <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H55">
         <v>49</v>
       </c>
       <c r="I55" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.15">
@@ -1634,13 +1640,13 @@
         <v>50</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H56">
         <v>50</v>
       </c>
       <c r="I56" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.15">
@@ -1648,13 +1654,13 @@
         <v>51</v>
       </c>
       <c r="F57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H57">
         <v>51</v>
       </c>
       <c r="I57" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.15">
@@ -1662,13 +1668,13 @@
         <v>52</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H58">
         <v>52</v>
       </c>
       <c r="I58" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.15">
@@ -1676,13 +1682,13 @@
         <v>53</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H59">
         <v>53</v>
       </c>
       <c r="I59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.15">
@@ -1690,13 +1696,13 @@
         <v>54</v>
       </c>
       <c r="F60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H60">
         <v>54</v>
       </c>
       <c r="I60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="5:9" x14ac:dyDescent="0.15">
@@ -1704,13 +1710,13 @@
         <v>55</v>
       </c>
       <c r="F61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H61">
         <v>55</v>
       </c>
       <c r="I61" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="5:9" x14ac:dyDescent="0.15">
@@ -1718,13 +1724,13 @@
         <v>56</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H62">
         <v>56</v>
       </c>
       <c r="I62" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.15">
@@ -1732,13 +1738,13 @@
         <v>57</v>
       </c>
       <c r="F63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H63">
         <v>57</v>
       </c>
       <c r="I63" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.15">
@@ -1746,13 +1752,13 @@
         <v>58</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H64">
         <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="5:9" x14ac:dyDescent="0.15">
@@ -1760,13 +1766,13 @@
         <v>59</v>
       </c>
       <c r="F65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H65">
         <v>59</v>
       </c>
       <c r="I65" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="5:9" x14ac:dyDescent="0.15">
@@ -1774,13 +1780,13 @@
         <v>60</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H66">
         <v>60</v>
       </c>
       <c r="I66" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="5:9" x14ac:dyDescent="0.15">
@@ -1788,13 +1794,13 @@
         <v>61</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H67">
         <v>61</v>
       </c>
       <c r="I67" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.15">
@@ -1802,13 +1808,13 @@
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H68">
         <v>62</v>
       </c>
       <c r="I68" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.15">
@@ -1816,13 +1822,13 @@
         <v>63</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H69">
         <v>63</v>
       </c>
       <c r="I69" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.15">
@@ -1830,7 +1836,7 @@
         <v>64</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="5:9" x14ac:dyDescent="0.15">
@@ -1838,7 +1844,7 @@
         <v>65</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1852,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1881,16 +1887,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F4">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.15">
@@ -1901,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F5">
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.15">
@@ -1921,22 +1927,22 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F6">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.15">
@@ -1947,22 +1953,22 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F7">
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.15">
@@ -1973,22 +1979,22 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.15">
@@ -1999,22 +2005,22 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F9">
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K9">
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.15">
@@ -2025,22 +2031,22 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F10">
         <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K10">
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.15">
@@ -2051,22 +2057,22 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F11">
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K11">
         <v>6</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.15">
@@ -2077,22 +2083,22 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F12">
         <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K12">
         <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.15">
@@ -2103,22 +2109,22 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F13">
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K13">
         <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.15">
@@ -2126,25 +2132,25 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F14">
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K14">
         <v>9</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.15">
@@ -2152,25 +2158,25 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K15">
         <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.15">
@@ -2178,25 +2184,25 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F16">
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K16">
         <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.15">
@@ -2204,25 +2210,25 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F17">
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K17">
         <v>12</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.15">
@@ -2230,25 +2236,25 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F18">
         <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K18">
         <v>13</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.15">
@@ -2256,25 +2262,25 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F19">
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K19">
         <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.15">
@@ -2282,25 +2288,25 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F20">
         <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K20">
         <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.15">
@@ -2308,25 +2314,25 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F21">
         <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K21">
         <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.15">
@@ -2334,25 +2340,25 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F22">
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K22">
         <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.15">
@@ -2360,16 +2366,16 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K23">
         <v>18</v>
       </c>
       <c r="L23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.15">
@@ -2377,7 +2383,7 @@
         <v>19</v>
       </c>
       <c r="L24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.15">
@@ -2385,7 +2391,7 @@
         <v>20</v>
       </c>
       <c r="L25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.15">
@@ -2393,7 +2399,7 @@
         <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.15">
@@ -2401,7 +2407,7 @@
         <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.15">
@@ -2409,7 +2415,7 @@
         <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.15">
@@ -2417,7 +2423,7 @@
         <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.15">
@@ -2425,7 +2431,7 @@
         <v>25</v>
       </c>
       <c r="L30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.15">
@@ -2433,7 +2439,7 @@
         <v>26</v>
       </c>
       <c r="L31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.15">
@@ -2441,7 +2447,7 @@
         <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
